--- a/capiq_data/in_process_data/IQ25016048.xlsx
+++ b/capiq_data/in_process_data/IQ25016048.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E51E9E3-A444-4C68-B98B-CF95754134DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FD3812-6F14-404A-A4E4-D533EFCD275E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2d91fc1f-ddf9-457d-82e8-528592a2db6e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"df5d7caa-0849-4c54-88bd-530b1294dab4"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$60</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$60</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$60</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$60</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$60</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$60</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$60</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$60</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$60</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$60</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$60</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$60</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$60</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$60</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$60</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$60</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$60</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$60</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$60</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$60</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$60</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$60</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$60</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$60</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$60</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$60</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,57 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
     <t>FQ42010</t>
   </si>
   <si>
@@ -296,6 +347,9 @@
   </si>
   <si>
     <t>FQ42020</t>
+  </si>
+  <si>
+    <t>FQ12021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +787,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40482</v>
+        <v>38748</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>-87</v>
       </c>
       <c r="D2">
-        <v>572</v>
+        <v>438</v>
       </c>
       <c r="E2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F2">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>1087</v>
+        <v>1108</v>
       </c>
       <c r="H2">
-        <v>2157</v>
+        <v>2969</v>
       </c>
       <c r="I2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +823,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N2">
-        <v>565</v>
+        <v>1000</v>
       </c>
       <c r="O2">
-        <v>652</v>
+        <v>2004</v>
       </c>
       <c r="P2">
-        <v>236</v>
+        <v>1724</v>
       </c>
       <c r="Q2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="R2">
-        <v>40482</v>
+        <v>38748</v>
       </c>
       <c r="S2">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1505</v>
+        <v>965</v>
       </c>
       <c r="U2">
-        <v>561</v>
+        <v>169</v>
       </c>
       <c r="V2">
-        <v>217</v>
+        <v>88</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>7</v>
+        <v>2709</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>164</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40573</v>
+        <v>38837</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>-53</v>
       </c>
       <c r="D3">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="E3">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="F3">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="G3">
-        <v>910</v>
+        <v>841</v>
       </c>
       <c r="H3">
-        <v>1971</v>
+        <v>2507</v>
       </c>
       <c r="I3">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,78 +906,78 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>237</v>
+        <v>575</v>
       </c>
       <c r="O3">
-        <v>327</v>
+        <v>1580</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>1249</v>
       </c>
       <c r="Q3">
-        <v>-198</v>
+        <v>41</v>
       </c>
       <c r="R3">
-        <v>40573</v>
+        <v>38837</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1644</v>
+        <v>927</v>
       </c>
       <c r="U3">
-        <v>363</v>
+        <v>210</v>
       </c>
       <c r="V3">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="W3">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-224</v>
+        <v>-461</v>
       </c>
       <c r="Y3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>119</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40664</v>
+        <v>39113</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>560</v>
+        <v>377.5</v>
       </c>
       <c r="E4">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>289</v>
+        <v>145.5</v>
       </c>
       <c r="G4">
-        <v>1128</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2177</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +992,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>1007</v>
       </c>
       <c r="Q4">
-        <v>233</v>
+        <v>-36</v>
       </c>
       <c r="R4">
-        <v>40664</v>
+        <v>39113</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1791</v>
+        <v>842</v>
       </c>
       <c r="U4">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>253</v>
+        <v>-16</v>
       </c>
       <c r="W4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>-43</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40755</v>
+        <v>39202</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>603</v>
+        <v>380</v>
       </c>
       <c r="E5">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="G5">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2273</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1075,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>108</v>
+        <v>-36</v>
       </c>
       <c r="R5">
-        <v>40755</v>
+        <v>39202</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1870</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>211</v>
+        <v>-16</v>
       </c>
       <c r="W5">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-79</v>
+        <v>-43</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40846</v>
+        <v>39294</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>154</v>
+        <v>-167</v>
       </c>
       <c r="D6">
-        <v>623</v>
+        <v>381</v>
       </c>
       <c r="E6">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="G6">
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2446</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,78 +1158,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="R6">
-        <v>40846</v>
+        <v>39294</v>
       </c>
       <c r="S6">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="W6">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-32</v>
+        <v>-9</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>154</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40937</v>
+        <v>39386</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>-2</v>
       </c>
       <c r="D7">
-        <v>563</v>
+        <v>391</v>
       </c>
       <c r="E7">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="F7">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="G7">
-        <v>1372</v>
+        <v>717</v>
       </c>
       <c r="H7">
-        <v>2444</v>
+        <v>1951</v>
       </c>
       <c r="I7">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>903</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,75 +1241,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="O7">
-        <v>404</v>
+        <v>1258</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>909</v>
       </c>
       <c r="Q7">
-        <v>-10</v>
+        <v>96</v>
       </c>
       <c r="R7">
-        <v>40937</v>
+        <v>39386</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2040</v>
+        <v>693</v>
       </c>
       <c r="U7">
-        <v>819</v>
+        <v>309</v>
       </c>
       <c r="V7">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="W7">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-102</v>
+        <v>-19</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>125</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41028</v>
+        <v>39482</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>134</v>
+        <v>10.5</v>
       </c>
       <c r="D8">
-        <v>577</v>
+        <v>406.5</v>
       </c>
       <c r="E8">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="G8">
-        <v>1508</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2611</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,78 +1324,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>909</v>
       </c>
       <c r="Q8">
-        <v>135</v>
+        <v>-113</v>
       </c>
       <c r="R8">
-        <v>41028</v>
+        <v>39482</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2167</v>
+        <v>693</v>
       </c>
       <c r="U8">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="W8">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-20</v>
+        <v>-102.5</v>
       </c>
       <c r="Y8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>134</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41119</v>
+        <v>39572</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>145</v>
+        <v>10.5</v>
       </c>
       <c r="D9">
-        <v>606</v>
+        <v>411</v>
       </c>
       <c r="E9">
-        <v>330</v>
+        <v>213</v>
       </c>
       <c r="F9">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="G9">
-        <v>1581</v>
+        <v>494</v>
       </c>
       <c r="H9">
-        <v>2715</v>
+        <v>1741</v>
       </c>
       <c r="I9">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1407,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="O9">
-        <v>426</v>
+        <v>1032</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>712</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>-113</v>
       </c>
       <c r="R9">
-        <v>41119</v>
+        <v>39572</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="T9">
-        <v>2289</v>
+        <v>709</v>
       </c>
       <c r="U9">
-        <v>973</v>
+        <v>83</v>
       </c>
       <c r="V9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="W9">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-42</v>
+        <v>-102.5</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>145</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41210</v>
+        <v>39663</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>618</v>
+        <v>439</v>
       </c>
       <c r="E10">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="F10">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="G10">
-        <v>1691</v>
+        <v>582</v>
       </c>
       <c r="H10">
-        <v>2862</v>
+        <v>1808</v>
       </c>
       <c r="I10">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1490,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="O10">
-        <v>443</v>
+        <v>1052</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>710</v>
       </c>
       <c r="Q10">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="R10">
-        <v>41210</v>
+        <v>39663</v>
       </c>
       <c r="S10">
         <v>3600</v>
       </c>
       <c r="T10">
-        <v>2419</v>
+        <v>756</v>
       </c>
       <c r="U10">
-        <v>1084</v>
+        <v>148</v>
       </c>
       <c r="V10">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="W10">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-30</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>159</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41308</v>
+        <v>39754</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>576</v>
+        <v>447</v>
       </c>
       <c r="E11">
-        <v>266</v>
+        <v>184</v>
       </c>
       <c r="F11">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="G11">
-        <v>1713</v>
+        <v>619</v>
       </c>
       <c r="H11">
-        <v>2892</v>
+        <v>1871</v>
       </c>
       <c r="I11">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,75 +1573,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="O11">
-        <v>374</v>
+        <v>1091</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>710</v>
       </c>
       <c r="Q11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R11">
-        <v>41308</v>
+        <v>39754</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2518</v>
+        <v>780</v>
       </c>
       <c r="U11">
-        <v>1151</v>
+        <v>213</v>
       </c>
       <c r="V11">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="W11">
-        <v>-42</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-42</v>
+        <v>-4</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z11">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41399</v>
+        <v>39845</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>562</v>
+        <v>368</v>
       </c>
       <c r="E12">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="G12">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>3039</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1599,81 +1653,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N12">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>710</v>
       </c>
       <c r="Q12">
-        <v>68</v>
+        <v>-18</v>
       </c>
       <c r="R12">
-        <v>41399</v>
+        <v>39845</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2611</v>
+        <v>780</v>
       </c>
       <c r="U12">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>188</v>
+        <v>-4</v>
       </c>
       <c r="W12">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-36</v>
+        <v>-2</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>113</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41490</v>
+        <v>39936</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>-31</v>
       </c>
       <c r="D13">
-        <v>644</v>
+        <v>325</v>
       </c>
       <c r="E13">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="F13">
-        <v>319</v>
+        <v>115</v>
       </c>
       <c r="G13">
-        <v>1641</v>
+        <v>615</v>
       </c>
       <c r="H13">
-        <v>3204</v>
+        <v>1805</v>
       </c>
       <c r="I13">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1739,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="O13">
-        <v>478</v>
+        <v>1047</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>706</v>
       </c>
       <c r="Q13">
-        <v>-356</v>
+        <v>46</v>
       </c>
       <c r="R13">
-        <v>41490</v>
+        <v>39936</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="T13">
-        <v>2726</v>
+        <v>758</v>
       </c>
       <c r="U13">
-        <v>863</v>
+        <v>241</v>
       </c>
       <c r="V13">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="W13">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-55</v>
+        <v>-2</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>142</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41581</v>
+        <v>40027</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>738</v>
+        <v>363</v>
       </c>
       <c r="E14">
-        <v>418</v>
+        <v>178</v>
       </c>
       <c r="F14">
-        <v>377</v>
+        <v>158</v>
       </c>
       <c r="G14">
-        <v>1818</v>
+        <v>616</v>
       </c>
       <c r="H14">
-        <v>3415</v>
+        <v>1775</v>
       </c>
       <c r="I14">
-        <v>278</v>
+        <v>152</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1822,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>414</v>
+        <v>251</v>
       </c>
       <c r="O14">
-        <v>529</v>
+        <v>1017</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="Q14">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="R14">
-        <v>41581</v>
+        <v>40027</v>
       </c>
       <c r="S14">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2886</v>
+        <v>758</v>
       </c>
       <c r="U14">
-        <v>985</v>
+        <v>254</v>
       </c>
       <c r="V14">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="W14">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-36</v>
+        <v>-6</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>172</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41672</v>
+        <v>40118</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>-21</v>
       </c>
       <c r="D15">
-        <v>709</v>
+        <v>428</v>
       </c>
       <c r="E15">
-        <v>323</v>
+        <v>186</v>
       </c>
       <c r="F15">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="G15">
-        <v>1859</v>
+        <v>864</v>
       </c>
       <c r="H15">
-        <v>3472</v>
+        <v>1970</v>
       </c>
       <c r="I15">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1905,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>364</v>
+        <v>633</v>
       </c>
       <c r="O15">
-        <v>480</v>
+        <v>930</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>599</v>
       </c>
       <c r="Q15">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="R15">
-        <v>41672</v>
+        <v>40118</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="T15">
-        <v>2992</v>
+        <v>1040</v>
       </c>
       <c r="U15">
-        <v>1112</v>
+        <v>472</v>
       </c>
       <c r="V15">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="W15">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-50</v>
+        <v>193</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>134</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41763</v>
+        <v>40209</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>701</v>
+        <v>456</v>
       </c>
       <c r="E16">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="F16">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="G16">
-        <v>2034</v>
+        <v>557</v>
       </c>
       <c r="H16">
-        <v>3671</v>
+        <v>1632</v>
       </c>
       <c r="I16">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +1985,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-364</v>
       </c>
       <c r="N16">
-        <v>416</v>
+        <v>248</v>
       </c>
       <c r="O16">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="Q16">
-        <v>166</v>
+        <v>-328</v>
       </c>
       <c r="R16">
-        <v>41763</v>
+        <v>40209</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3154</v>
+        <v>1087</v>
       </c>
       <c r="U16">
-        <v>1278</v>
+        <v>144</v>
       </c>
       <c r="V16">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="W16">
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-26</v>
+        <v>-360</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41854</v>
+        <v>40300</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-164</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>1269</v>
+        <v>515</v>
       </c>
       <c r="E17">
-        <v>590</v>
+        <v>249</v>
       </c>
       <c r="F17">
-        <v>509</v>
+        <v>247</v>
       </c>
       <c r="G17">
-        <v>3840</v>
+        <v>727</v>
       </c>
       <c r="H17">
-        <v>10262</v>
+        <v>1782</v>
       </c>
       <c r="I17">
-        <v>459</v>
+        <v>169</v>
       </c>
       <c r="J17">
-        <v>5472</v>
+        <v>230</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2071,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>940</v>
+        <v>281</v>
       </c>
       <c r="O17">
-        <v>7164</v>
+        <v>582</v>
       </c>
       <c r="P17">
-        <v>5518</v>
+        <v>236</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="R17">
-        <v>41854</v>
+        <v>40300</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3098</v>
+        <v>1200</v>
       </c>
       <c r="U17">
-        <v>1277</v>
+        <v>256</v>
       </c>
       <c r="V17">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="W17">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>5424</v>
+        <v>15</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-164</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41945</v>
+        <v>40391</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E18">
-        <v>782</v>
+        <v>279</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="G18">
-        <v>3835</v>
+        <v>873</v>
       </c>
       <c r="H18">
-        <v>10491</v>
+        <v>1920</v>
       </c>
       <c r="I18">
-        <v>515</v>
+        <v>172</v>
       </c>
       <c r="J18">
-        <v>5463</v>
+        <v>230</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2154,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1016</v>
+        <v>285</v>
       </c>
       <c r="O18">
-        <v>7248</v>
+        <v>587</v>
       </c>
       <c r="P18">
-        <v>5509</v>
+        <v>236</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R18">
-        <v>41945</v>
+        <v>40391</v>
       </c>
       <c r="S18">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3243</v>
+        <v>1333</v>
       </c>
       <c r="U18">
-        <v>1604</v>
+        <v>367</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42036</v>
+        <v>40482</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>351</v>
+        <v>164</v>
       </c>
       <c r="D19">
-        <v>1635</v>
+        <v>572</v>
       </c>
       <c r="E19">
-        <v>718</v>
+        <v>285</v>
       </c>
       <c r="F19">
-        <v>941</v>
+        <v>290</v>
       </c>
       <c r="G19">
-        <v>4098</v>
+        <v>1087</v>
       </c>
       <c r="H19">
-        <v>10697</v>
+        <v>2157</v>
       </c>
       <c r="I19">
-        <v>452</v>
+        <v>201</v>
       </c>
       <c r="J19">
-        <v>5454</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2234,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>845</v>
+        <v>565</v>
       </c>
       <c r="O19">
-        <v>7069</v>
+        <v>652</v>
       </c>
       <c r="P19">
-        <v>5500</v>
+        <v>236</v>
       </c>
       <c r="Q19">
-        <v>965</v>
+        <v>194</v>
       </c>
       <c r="R19">
-        <v>42036</v>
+        <v>40482</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T19">
-        <v>3628</v>
+        <v>1505</v>
       </c>
       <c r="U19">
-        <v>2569</v>
+        <v>561</v>
       </c>
       <c r="V19">
-        <v>481</v>
+        <v>217</v>
       </c>
       <c r="W19">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z19">
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42127</v>
+        <v>40573</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>344</v>
+        <v>119</v>
       </c>
       <c r="D20">
-        <v>1614</v>
+        <v>550</v>
       </c>
       <c r="E20">
-        <v>758</v>
+        <v>291</v>
       </c>
       <c r="F20">
-        <v>960</v>
+        <v>285</v>
       </c>
       <c r="G20">
-        <v>4076</v>
+        <v>910</v>
       </c>
       <c r="H20">
-        <v>10532</v>
+        <v>1971</v>
       </c>
       <c r="I20">
-        <v>501</v>
+        <v>156</v>
       </c>
       <c r="J20">
-        <v>4852</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2317,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-231</v>
       </c>
       <c r="N20">
-        <v>906</v>
+        <v>237</v>
       </c>
       <c r="O20">
-        <v>6471</v>
+        <v>327</v>
       </c>
       <c r="P20">
-        <v>4898</v>
+        <v>7</v>
       </c>
       <c r="Q20">
-        <v>-61</v>
+        <v>-198</v>
       </c>
       <c r="R20">
-        <v>42127</v>
+        <v>40573</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4061</v>
+        <v>1644</v>
       </c>
       <c r="U20">
-        <v>2508</v>
+        <v>363</v>
       </c>
       <c r="V20">
-        <v>663</v>
+        <v>67</v>
       </c>
       <c r="W20">
-        <v>-99</v>
+        <v>-17</v>
       </c>
       <c r="X20">
-        <v>-575</v>
+        <v>-224</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z20">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>344</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42218</v>
+        <v>40664</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>1735</v>
+        <v>560</v>
       </c>
       <c r="E21">
-        <v>809</v>
+        <v>289</v>
       </c>
       <c r="F21">
-        <v>1041</v>
+        <v>289</v>
       </c>
       <c r="G21">
-        <v>3169</v>
+        <v>1128</v>
       </c>
       <c r="H21">
-        <v>9988</v>
+        <v>2177</v>
       </c>
       <c r="I21">
-        <v>501</v>
+        <v>206</v>
       </c>
       <c r="J21">
-        <v>3915</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2403,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>952</v>
+        <v>296</v>
       </c>
       <c r="O21">
-        <v>5707</v>
+        <v>386</v>
       </c>
       <c r="P21">
-        <v>3961</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <v>-1154</v>
+        <v>233</v>
       </c>
       <c r="R21">
-        <v>42218</v>
+        <v>40664</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4281</v>
+        <v>1791</v>
       </c>
       <c r="U21">
-        <v>1354</v>
+        <v>596</v>
       </c>
       <c r="V21">
-        <v>592</v>
+        <v>253</v>
       </c>
       <c r="W21">
-        <v>-104</v>
+        <v>-20</v>
       </c>
       <c r="X21">
-        <v>-1204</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>240</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42309</v>
+        <v>40755</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>429</v>
+        <v>144</v>
       </c>
       <c r="D22">
-        <v>1840</v>
+        <v>603</v>
       </c>
       <c r="E22">
-        <v>1019</v>
+        <v>285</v>
       </c>
       <c r="F22">
-        <v>1131</v>
+        <v>311</v>
       </c>
       <c r="G22">
-        <v>3759</v>
+        <v>1229</v>
       </c>
       <c r="H22">
-        <v>10515</v>
+        <v>2273</v>
       </c>
       <c r="I22">
-        <v>617</v>
+        <v>196</v>
       </c>
       <c r="J22">
-        <v>3826</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2486,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1119</v>
+        <v>311</v>
       </c>
       <c r="O22">
-        <v>5801</v>
+        <v>403</v>
       </c>
       <c r="P22">
-        <v>3872</v>
+        <v>6</v>
       </c>
       <c r="Q22">
-        <v>468</v>
+        <v>108</v>
       </c>
       <c r="R22">
-        <v>42309</v>
+        <v>40755</v>
       </c>
       <c r="S22">
-        <v>8200</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4714</v>
+        <v>1870</v>
       </c>
       <c r="U22">
-        <v>1822</v>
+        <v>704</v>
       </c>
       <c r="V22">
-        <v>582</v>
+        <v>211</v>
       </c>
       <c r="W22">
-        <v>-116</v>
+        <v>-22</v>
       </c>
       <c r="X22">
-        <v>-50</v>
+        <v>-79</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>429</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42400</v>
+        <v>40846</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>377</v>
+        <v>154</v>
       </c>
       <c r="D23">
-        <v>1771</v>
+        <v>623</v>
       </c>
       <c r="E23">
-        <v>1060</v>
+        <v>328</v>
       </c>
       <c r="F23">
-        <v>1072</v>
+        <v>318</v>
       </c>
       <c r="G23">
-        <v>3971</v>
+        <v>1393</v>
       </c>
       <c r="H23">
-        <v>10777</v>
+        <v>2446</v>
       </c>
       <c r="I23">
-        <v>523</v>
+        <v>225</v>
       </c>
       <c r="J23">
-        <v>3892</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2566,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>862</v>
+        <v>350</v>
       </c>
       <c r="O23">
-        <v>5656</v>
+        <v>440</v>
       </c>
       <c r="P23">
-        <v>3938</v>
+        <v>6</v>
       </c>
       <c r="Q23">
-        <v>347</v>
+        <v>125</v>
       </c>
       <c r="R23">
-        <v>42400</v>
+        <v>40846</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T23">
-        <v>5121</v>
+        <v>2006</v>
       </c>
       <c r="U23">
-        <v>2169</v>
+        <v>829</v>
       </c>
       <c r="V23">
-        <v>474</v>
+        <v>195</v>
       </c>
       <c r="W23">
-        <v>-122</v>
+        <v>-27</v>
       </c>
       <c r="X23">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>377</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42491</v>
+        <v>40937</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-1186</v>
+        <v>125</v>
       </c>
       <c r="D24">
-        <v>3541</v>
+        <v>563</v>
       </c>
       <c r="E24">
-        <v>1857</v>
+        <v>308</v>
       </c>
       <c r="F24">
-        <v>2104</v>
+        <v>284</v>
       </c>
       <c r="G24">
-        <v>6687</v>
+        <v>1372</v>
       </c>
       <c r="H24">
-        <v>51407</v>
+        <v>2444</v>
       </c>
       <c r="I24">
-        <v>985</v>
+        <v>222</v>
       </c>
       <c r="J24">
-        <v>14664</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2652,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2651</v>
+        <v>314</v>
       </c>
       <c r="O24">
-        <v>28645</v>
+        <v>404</v>
       </c>
       <c r="P24">
-        <v>15008</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>-128</v>
+        <v>-10</v>
       </c>
       <c r="R24">
-        <v>42491</v>
+        <v>40937</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>22762</v>
+        <v>2040</v>
       </c>
       <c r="U24">
-        <v>2041</v>
+        <v>819</v>
       </c>
       <c r="V24">
-        <v>622</v>
+        <v>139</v>
       </c>
       <c r="W24">
-        <v>-204</v>
+        <v>-29</v>
       </c>
       <c r="X24">
-        <v>9457</v>
+        <v>-102</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1186</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42582</v>
+        <v>41028</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-298</v>
+        <v>134</v>
       </c>
       <c r="D25">
-        <v>3792</v>
+        <v>577</v>
       </c>
       <c r="E25">
-        <v>2181</v>
+        <v>274</v>
       </c>
       <c r="F25">
-        <v>2272</v>
+        <v>293</v>
       </c>
       <c r="G25">
-        <v>6048</v>
+        <v>1508</v>
       </c>
       <c r="H25">
-        <v>49752</v>
+        <v>2611</v>
       </c>
       <c r="I25">
-        <v>1127</v>
+        <v>257</v>
       </c>
       <c r="J25">
-        <v>13381</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2735,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2728</v>
+        <v>356</v>
       </c>
       <c r="O25">
-        <v>27248</v>
+        <v>444</v>
       </c>
       <c r="P25">
-        <v>13715</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>-80</v>
+        <v>135</v>
       </c>
       <c r="R25">
-        <v>42582</v>
+        <v>41028</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>22504</v>
+        <v>2167</v>
       </c>
       <c r="U25">
-        <v>1961</v>
+        <v>954</v>
       </c>
       <c r="V25">
-        <v>963</v>
+        <v>211</v>
       </c>
       <c r="W25">
-        <v>-188</v>
+        <v>-32</v>
       </c>
       <c r="X25">
-        <v>-1469</v>
+        <v>-20</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-298</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42673</v>
+        <v>41119</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-632</v>
+        <v>145</v>
       </c>
       <c r="D26">
-        <v>4136</v>
+        <v>606</v>
       </c>
       <c r="E26">
-        <v>2181</v>
+        <v>330</v>
       </c>
       <c r="F26">
-        <v>2498</v>
+        <v>309</v>
       </c>
       <c r="G26">
-        <v>7125</v>
+        <v>1581</v>
       </c>
       <c r="H26">
-        <v>49966</v>
+        <v>2715</v>
       </c>
       <c r="I26">
-        <v>1261</v>
+        <v>239</v>
       </c>
       <c r="J26">
-        <v>13188</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2818,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3078</v>
+        <v>342</v>
       </c>
       <c r="O26">
-        <v>28090</v>
+        <v>426</v>
       </c>
       <c r="P26">
-        <v>13642</v>
+        <v>3</v>
       </c>
       <c r="Q26">
-        <v>1136</v>
+        <v>19</v>
       </c>
       <c r="R26">
-        <v>42673</v>
+        <v>41119</v>
       </c>
       <c r="S26">
-        <v>15700</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>21876</v>
+        <v>2289</v>
       </c>
       <c r="U26">
-        <v>3097</v>
+        <v>973</v>
       </c>
       <c r="V26">
-        <v>1352</v>
+        <v>128</v>
       </c>
       <c r="W26">
-        <v>-202</v>
+        <v>-37</v>
       </c>
       <c r="X26">
-        <v>-242</v>
+        <v>-42</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-632</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42764</v>
+        <v>41210</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>239</v>
+        <v>159</v>
       </c>
       <c r="D27">
-        <v>4139</v>
+        <v>618</v>
       </c>
       <c r="E27">
-        <v>1947</v>
+        <v>341</v>
       </c>
       <c r="F27">
-        <v>2566</v>
+        <v>314</v>
       </c>
       <c r="G27">
-        <v>7350</v>
+        <v>1691</v>
       </c>
       <c r="H27">
-        <v>49617</v>
+        <v>2862</v>
       </c>
       <c r="I27">
-        <v>1047</v>
+        <v>250</v>
       </c>
       <c r="J27">
-        <v>13562</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2898,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-13668</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2122</v>
+        <v>346</v>
       </c>
       <c r="O27">
-        <v>27607</v>
+        <v>443</v>
       </c>
       <c r="P27">
-        <v>13562</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>439</v>
+        <v>111</v>
       </c>
       <c r="R27">
-        <v>42764</v>
+        <v>41210</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="T27">
-        <v>22010</v>
+        <v>2419</v>
       </c>
       <c r="U27">
-        <v>3536</v>
+        <v>1084</v>
       </c>
       <c r="V27">
-        <v>1353</v>
+        <v>215</v>
       </c>
       <c r="W27">
-        <v>-431</v>
+        <v>-39</v>
       </c>
       <c r="X27">
-        <v>-595</v>
+        <v>-30</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>239</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42855</v>
+        <v>41308</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>440</v>
+        <v>125</v>
       </c>
       <c r="D28">
-        <v>4190</v>
+        <v>576</v>
       </c>
       <c r="E28">
-        <v>2073</v>
+        <v>266</v>
       </c>
       <c r="F28">
-        <v>2626</v>
+        <v>290</v>
       </c>
       <c r="G28">
-        <v>8468</v>
+        <v>1713</v>
       </c>
       <c r="H28">
-        <v>49849</v>
+        <v>2892</v>
       </c>
       <c r="I28">
-        <v>925</v>
+        <v>196</v>
       </c>
       <c r="J28">
-        <v>13567</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +2984,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2052</v>
+        <v>277</v>
       </c>
       <c r="O28">
-        <v>27506</v>
+        <v>374</v>
       </c>
       <c r="P28">
-        <v>13567</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>718</v>
+        <v>67</v>
       </c>
       <c r="R28">
-        <v>42855</v>
+        <v>41308</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>22343</v>
+        <v>2518</v>
       </c>
       <c r="U28">
-        <v>4254</v>
+        <v>1151</v>
       </c>
       <c r="V28">
-        <v>1583</v>
+        <v>185</v>
       </c>
       <c r="W28">
-        <v>-437</v>
+        <v>-42</v>
       </c>
       <c r="X28">
-        <v>-372</v>
+        <v>-42</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28">
-        <v>-200</v>
+        <v>-9</v>
       </c>
       <c r="AA28">
-        <v>440</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42946</v>
+        <v>41399</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>481</v>
+        <v>113</v>
       </c>
       <c r="D29">
-        <v>4463</v>
+        <v>562</v>
       </c>
       <c r="E29">
-        <v>2417</v>
+        <v>271</v>
       </c>
       <c r="F29">
-        <v>2805</v>
+        <v>286</v>
       </c>
       <c r="G29">
-        <v>9943</v>
+        <v>1818</v>
       </c>
       <c r="H29">
-        <v>49942</v>
+        <v>3039</v>
       </c>
       <c r="I29">
-        <v>1158</v>
+        <v>240</v>
       </c>
       <c r="J29">
-        <v>13572</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3067,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2218</v>
+        <v>330</v>
       </c>
       <c r="O29">
-        <v>27238</v>
+        <v>428</v>
       </c>
       <c r="P29">
-        <v>13572</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>995</v>
+        <v>68</v>
       </c>
       <c r="R29">
-        <v>42946</v>
+        <v>41399</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>22704</v>
+        <v>2611</v>
       </c>
       <c r="U29">
-        <v>5249</v>
+        <v>1219</v>
       </c>
       <c r="V29">
-        <v>1656</v>
+        <v>188</v>
       </c>
       <c r="W29">
-        <v>-369</v>
+        <v>-47</v>
       </c>
       <c r="X29">
-        <v>-403</v>
+        <v>-36</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="AA29">
-        <v>481</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43037</v>
+        <v>41490</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>532</v>
+        <v>142</v>
       </c>
       <c r="D30">
-        <v>4844</v>
+        <v>644</v>
       </c>
       <c r="E30">
-        <v>2448</v>
+        <v>365</v>
       </c>
       <c r="F30">
-        <v>3046</v>
+        <v>319</v>
       </c>
       <c r="G30">
-        <v>15823</v>
+        <v>1641</v>
       </c>
       <c r="H30">
-        <v>54418</v>
+        <v>3204</v>
       </c>
       <c r="I30">
-        <v>1105</v>
+        <v>266</v>
       </c>
       <c r="J30">
-        <v>17431</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3150,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2529</v>
+        <v>380</v>
       </c>
       <c r="O30">
-        <v>31232</v>
+        <v>478</v>
       </c>
       <c r="P30">
-        <v>17548</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>5955</v>
+        <v>-356</v>
       </c>
       <c r="R30">
-        <v>43037</v>
+        <v>41490</v>
       </c>
       <c r="S30">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>23186</v>
+        <v>2726</v>
       </c>
       <c r="U30">
-        <v>11204</v>
+        <v>863</v>
       </c>
       <c r="V30">
-        <v>1959</v>
+        <v>137</v>
       </c>
       <c r="W30">
-        <v>-416</v>
+        <v>-52</v>
       </c>
       <c r="X30">
-        <v>3600</v>
+        <v>-55</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="AA30">
-        <v>532</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43135</v>
+        <v>41581</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>6230</v>
+        <v>172</v>
       </c>
       <c r="D31">
-        <v>5327</v>
+        <v>738</v>
       </c>
       <c r="E31">
-        <v>2459</v>
+        <v>418</v>
       </c>
       <c r="F31">
-        <v>3428</v>
+        <v>377</v>
       </c>
       <c r="G31">
-        <v>11220</v>
+        <v>1818</v>
       </c>
       <c r="H31">
-        <v>54544</v>
+        <v>3415</v>
       </c>
       <c r="I31">
-        <v>816</v>
+        <v>278</v>
       </c>
       <c r="J31">
-        <v>17475</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3230,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-856</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1970</v>
+        <v>414</v>
       </c>
       <c r="O31">
-        <v>25463</v>
+        <v>529</v>
       </c>
       <c r="P31">
-        <v>17592</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-4128</v>
+        <v>122</v>
       </c>
       <c r="R31">
-        <v>43135</v>
+        <v>41581</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="T31">
-        <v>29081</v>
+        <v>2886</v>
       </c>
       <c r="U31">
-        <v>7076</v>
+        <v>985</v>
       </c>
       <c r="V31">
-        <v>1685</v>
+        <v>212</v>
       </c>
       <c r="W31">
-        <v>-755</v>
+        <v>-57</v>
       </c>
       <c r="X31">
-        <v>-1586</v>
+        <v>-36</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-244</v>
+        <v>8</v>
       </c>
       <c r="AA31">
-        <v>6230</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43226</v>
+        <v>41672</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>3718</v>
+        <v>134</v>
       </c>
       <c r="D32">
-        <v>5014</v>
+        <v>709</v>
       </c>
       <c r="E32">
-        <v>2749</v>
+        <v>323</v>
       </c>
       <c r="F32">
-        <v>3318</v>
+        <v>362</v>
       </c>
       <c r="G32">
-        <v>12474</v>
+        <v>1859</v>
       </c>
       <c r="H32">
-        <v>54936</v>
+        <v>3472</v>
       </c>
       <c r="I32">
-        <v>836</v>
+        <v>257</v>
       </c>
       <c r="J32">
-        <v>17481</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3316,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2124</v>
+        <v>364</v>
       </c>
       <c r="O32">
-        <v>22869</v>
+        <v>480</v>
       </c>
       <c r="P32">
-        <v>17598</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>1111</v>
+        <v>127</v>
       </c>
       <c r="R32">
-        <v>43226</v>
+        <v>41672</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>32067</v>
+        <v>2992</v>
       </c>
       <c r="U32">
-        <v>8187</v>
+        <v>1112</v>
       </c>
       <c r="V32">
-        <v>2313</v>
+        <v>229</v>
       </c>
       <c r="W32">
-        <v>-766</v>
+        <v>-62</v>
       </c>
       <c r="X32">
-        <v>-1047</v>
+        <v>-50</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>3718</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43317</v>
+        <v>41763</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1196</v>
+        <v>158</v>
       </c>
       <c r="D33">
-        <v>5063</v>
+        <v>701</v>
       </c>
       <c r="E33">
-        <v>3010</v>
+        <v>319</v>
       </c>
       <c r="F33">
-        <v>3383</v>
+        <v>375</v>
       </c>
       <c r="G33">
-        <v>8695</v>
+        <v>2034</v>
       </c>
       <c r="H33">
-        <v>50372</v>
+        <v>3671</v>
       </c>
       <c r="I33">
-        <v>785</v>
+        <v>274</v>
       </c>
       <c r="J33">
-        <v>17487</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3399,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2187</v>
+        <v>416</v>
       </c>
       <c r="O33">
-        <v>22920</v>
+        <v>517</v>
       </c>
       <c r="P33">
-        <v>17604</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-4051</v>
+        <v>166</v>
       </c>
       <c r="R33">
-        <v>43317</v>
+        <v>41763</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>27452</v>
+        <v>3154</v>
       </c>
       <c r="U33">
-        <v>4136</v>
+        <v>1278</v>
       </c>
       <c r="V33">
-        <v>2247</v>
+        <v>251</v>
       </c>
       <c r="W33">
-        <v>-677</v>
+        <v>-68</v>
       </c>
       <c r="X33">
-        <v>-6124</v>
+        <v>-26</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA33">
-        <v>1196</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43408</v>
+        <v>41854</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1115</v>
+        <v>-164</v>
       </c>
       <c r="D34">
-        <v>5444</v>
+        <v>1269</v>
       </c>
       <c r="E34">
-        <v>3325</v>
+        <v>590</v>
       </c>
       <c r="F34">
-        <v>3698</v>
+        <v>509</v>
       </c>
       <c r="G34">
-        <v>9107</v>
+        <v>3840</v>
       </c>
       <c r="H34">
-        <v>50124</v>
+        <v>10262</v>
       </c>
       <c r="I34">
-        <v>811</v>
+        <v>459</v>
       </c>
       <c r="J34">
-        <v>17493</v>
+        <v>5472</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,37 +3482,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2338</v>
+        <v>940</v>
       </c>
       <c r="O34">
-        <v>23467</v>
+        <v>7164</v>
       </c>
       <c r="P34">
-        <v>17493</v>
+        <v>5518</v>
       </c>
       <c r="Q34">
-        <v>156</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>43408</v>
+        <v>41854</v>
       </c>
       <c r="S34">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>26657</v>
+        <v>3098</v>
       </c>
       <c r="U34">
-        <v>4292</v>
+        <v>1277</v>
       </c>
       <c r="V34">
-        <v>2635</v>
+        <v>314</v>
       </c>
       <c r="W34">
-        <v>-723</v>
+        <v>-73</v>
       </c>
       <c r="X34">
-        <v>-2361</v>
+        <v>5424</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,39 +3521,39 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>1115</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43499</v>
+        <v>41945</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>5789</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>3677</v>
+        <v>782</v>
       </c>
       <c r="F35">
-        <v>4097</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>10604</v>
+        <v>3835</v>
       </c>
       <c r="H35">
-        <v>72110</v>
+        <v>10491</v>
       </c>
       <c r="I35">
-        <v>738</v>
+        <v>515</v>
       </c>
       <c r="J35">
-        <v>34104</v>
+        <v>5463</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,37 +3565,37 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>8349</v>
+        <v>1016</v>
       </c>
       <c r="O35">
-        <v>48886</v>
+        <v>7248</v>
       </c>
       <c r="P35">
-        <v>37641</v>
+        <v>5509</v>
       </c>
       <c r="Q35">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>43499</v>
+        <v>41945</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="T35">
-        <v>23224</v>
+        <v>3243</v>
       </c>
       <c r="U35">
-        <v>5093</v>
+        <v>1604</v>
       </c>
       <c r="V35">
-        <v>2132</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>-1067</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>13862</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,39 +3604,39 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43590</v>
+        <v>42036</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>691</v>
+        <v>351</v>
       </c>
       <c r="D36">
-        <v>5517</v>
+        <v>1635</v>
       </c>
       <c r="E36">
-        <v>3484</v>
+        <v>718</v>
       </c>
       <c r="F36">
-        <v>3925</v>
+        <v>941</v>
       </c>
       <c r="G36">
-        <v>10677</v>
+        <v>4098</v>
       </c>
       <c r="H36">
-        <v>70916</v>
+        <v>10697</v>
       </c>
       <c r="I36">
-        <v>759</v>
+        <v>452</v>
       </c>
       <c r="J36">
-        <v>34011</v>
+        <v>5454</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3591,40 +3645,40 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="N36">
-        <v>8503</v>
+        <v>845</v>
       </c>
       <c r="O36">
-        <v>48744</v>
+        <v>7069</v>
       </c>
       <c r="P36">
-        <v>37548</v>
+        <v>5500</v>
       </c>
       <c r="Q36">
-        <v>235</v>
+        <v>965</v>
       </c>
       <c r="R36">
-        <v>43590</v>
+        <v>42036</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>22172</v>
+        <v>3628</v>
       </c>
       <c r="U36">
-        <v>5328</v>
+        <v>2569</v>
       </c>
       <c r="V36">
-        <v>2667</v>
+        <v>481</v>
       </c>
       <c r="W36">
-        <v>-1057</v>
+        <v>-89</v>
       </c>
       <c r="X36">
-        <v>-2326</v>
+        <v>-30</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,39 +3687,39 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>691</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43681</v>
+        <v>42127</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>715</v>
+        <v>344</v>
       </c>
       <c r="D37">
-        <v>5515</v>
+        <v>1614</v>
       </c>
       <c r="E37">
-        <v>3539</v>
+        <v>758</v>
       </c>
       <c r="F37">
-        <v>3864</v>
+        <v>960</v>
       </c>
       <c r="G37">
-        <v>10898</v>
+        <v>4076</v>
       </c>
       <c r="H37">
-        <v>69767</v>
+        <v>10532</v>
       </c>
       <c r="I37">
-        <v>996</v>
+        <v>501</v>
       </c>
       <c r="J37">
-        <v>34028</v>
+        <v>4852</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3731,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>8282</v>
+        <v>906</v>
       </c>
       <c r="O37">
-        <v>48264</v>
+        <v>6471</v>
       </c>
       <c r="P37">
-        <v>37565</v>
+        <v>4898</v>
       </c>
       <c r="Q37">
-        <v>134</v>
+        <v>-61</v>
       </c>
       <c r="R37">
-        <v>43681</v>
+        <v>42127</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>21503</v>
+        <v>4061</v>
       </c>
       <c r="U37">
-        <v>5462</v>
+        <v>2508</v>
       </c>
       <c r="V37">
-        <v>2419</v>
+        <v>663</v>
       </c>
       <c r="W37">
-        <v>-1057</v>
+        <v>-99</v>
       </c>
       <c r="X37">
-        <v>-2250</v>
+        <v>-575</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AA37">
-        <v>715</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43772</v>
+        <v>42218</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>847</v>
+        <v>240</v>
       </c>
       <c r="D38">
-        <v>5776</v>
+        <v>1735</v>
       </c>
       <c r="E38">
-        <v>3259</v>
+        <v>809</v>
       </c>
       <c r="F38">
-        <v>3988</v>
+        <v>1041</v>
       </c>
       <c r="G38">
-        <v>9917</v>
+        <v>3169</v>
       </c>
       <c r="H38">
-        <v>67493</v>
+        <v>9988</v>
       </c>
       <c r="I38">
-        <v>855</v>
+        <v>501</v>
       </c>
       <c r="J38">
-        <v>30011</v>
+        <v>3915</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3814,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>6899</v>
+        <v>952</v>
       </c>
       <c r="O38">
-        <v>42523</v>
+        <v>5707</v>
       </c>
       <c r="P38">
-        <v>32798</v>
+        <v>3961</v>
       </c>
       <c r="Q38">
-        <v>-407</v>
+        <v>-1154</v>
       </c>
       <c r="R38">
-        <v>43772</v>
+        <v>42218</v>
       </c>
       <c r="S38">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>24970</v>
+        <v>4281</v>
       </c>
       <c r="U38">
-        <v>5055</v>
+        <v>1354</v>
       </c>
       <c r="V38">
-        <v>2479</v>
+        <v>592</v>
       </c>
       <c r="W38">
-        <v>-1054</v>
+        <v>-104</v>
       </c>
       <c r="X38">
-        <v>-2798</v>
+        <v>-1204</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>847</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43863</v>
+        <v>42309</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="D39">
-        <v>5858</v>
+        <v>1840</v>
       </c>
       <c r="E39">
-        <v>3651</v>
+        <v>1019</v>
       </c>
       <c r="F39">
-        <v>4222</v>
+        <v>1131</v>
       </c>
       <c r="G39">
-        <v>12109</v>
+        <v>3759</v>
       </c>
       <c r="H39">
-        <v>81006</v>
+        <v>10515</v>
       </c>
       <c r="I39">
-        <v>985</v>
+        <v>617</v>
       </c>
       <c r="J39">
-        <v>42363</v>
+        <v>3826</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3894,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-4537</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>7739</v>
+        <v>1119</v>
       </c>
       <c r="O39">
-        <v>56610</v>
+        <v>5801</v>
       </c>
       <c r="P39">
-        <v>45381</v>
+        <v>3872</v>
       </c>
       <c r="Q39">
-        <v>1389</v>
+        <v>468</v>
       </c>
       <c r="R39">
-        <v>43863</v>
+        <v>42309</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="T39">
-        <v>24396</v>
+        <v>4714</v>
       </c>
       <c r="U39">
-        <v>6444</v>
+        <v>1822</v>
       </c>
       <c r="V39">
-        <v>2322</v>
+        <v>582</v>
       </c>
       <c r="W39">
-        <v>-1372</v>
+        <v>-116</v>
       </c>
       <c r="X39">
-        <v>10054</v>
+        <v>-50</v>
       </c>
       <c r="Y39">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AA39">
-        <v>385</v>
+        <v>429</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43954</v>
+        <v>42400</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>563</v>
+        <v>377</v>
       </c>
       <c r="D40">
-        <v>5742</v>
+        <v>1771</v>
       </c>
       <c r="E40">
-        <v>3211</v>
+        <v>1060</v>
       </c>
       <c r="F40">
-        <v>4150</v>
+        <v>1072</v>
       </c>
       <c r="G40">
-        <v>14222</v>
+        <v>3971</v>
       </c>
       <c r="H40">
-        <v>81548</v>
+        <v>10777</v>
       </c>
       <c r="I40">
-        <v>1230</v>
+        <v>523</v>
       </c>
       <c r="J40">
-        <v>45001</v>
+        <v>3892</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3923,81 +3977,81 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="N40">
-        <v>6601</v>
+        <v>862</v>
       </c>
       <c r="O40">
-        <v>57578</v>
+        <v>5656</v>
       </c>
       <c r="P40">
-        <v>46511</v>
+        <v>3938</v>
       </c>
       <c r="Q40">
-        <v>2763</v>
+        <v>347</v>
       </c>
       <c r="R40">
-        <v>43954</v>
+        <v>42400</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>23970</v>
+        <v>5121</v>
       </c>
       <c r="U40">
-        <v>9207</v>
+        <v>2169</v>
       </c>
       <c r="V40">
-        <v>3213</v>
+        <v>474</v>
       </c>
       <c r="W40">
-        <v>-1381</v>
+        <v>-122</v>
       </c>
       <c r="X40">
-        <v>-474</v>
+        <v>-42</v>
       </c>
       <c r="Y40">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>563</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44045</v>
+        <v>42491</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>688</v>
+        <v>-1186</v>
       </c>
       <c r="D41">
-        <v>5821</v>
+        <v>3541</v>
       </c>
       <c r="E41">
-        <v>2684</v>
+        <v>1857</v>
       </c>
       <c r="F41">
-        <v>4284</v>
+        <v>2104</v>
       </c>
       <c r="G41">
-        <v>13681</v>
+        <v>6687</v>
       </c>
       <c r="H41">
-        <v>79298</v>
+        <v>51407</v>
       </c>
       <c r="I41">
-        <v>1092</v>
+        <v>985</v>
       </c>
       <c r="J41">
-        <v>43149</v>
+        <v>14664</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,129 +4063,1623 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>6702</v>
+        <v>2651</v>
       </c>
       <c r="O41">
-        <v>55713</v>
+        <v>28645</v>
       </c>
       <c r="P41">
-        <v>44669</v>
+        <v>15008</v>
       </c>
       <c r="Q41">
-        <v>-350</v>
+        <v>-128</v>
       </c>
       <c r="R41">
-        <v>44045</v>
+        <v>42491</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>23585</v>
+        <v>22762</v>
       </c>
       <c r="U41">
-        <v>8857</v>
+        <v>2041</v>
       </c>
       <c r="V41">
-        <v>3178</v>
+        <v>622</v>
       </c>
       <c r="W41">
-        <v>-1386</v>
+        <v>-204</v>
       </c>
       <c r="X41">
-        <v>-3482</v>
+        <v>9457</v>
       </c>
       <c r="Y41">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="AA41">
-        <v>688</v>
+        <v>-1186</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44136</v>
+        <v>42582</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-298</v>
+      </c>
+      <c r="D42">
+        <v>3792</v>
+      </c>
+      <c r="E42">
+        <v>2181</v>
+      </c>
+      <c r="F42">
+        <v>2272</v>
+      </c>
+      <c r="G42">
+        <v>6048</v>
+      </c>
+      <c r="H42">
+        <v>49752</v>
+      </c>
+      <c r="I42">
+        <v>1127</v>
+      </c>
+      <c r="J42">
+        <v>13381</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2728</v>
+      </c>
+      <c r="O42">
+        <v>27248</v>
+      </c>
+      <c r="P42">
+        <v>13715</v>
+      </c>
+      <c r="Q42">
+        <v>-80</v>
+      </c>
+      <c r="R42">
+        <v>42582</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>22504</v>
+      </c>
+      <c r="U42">
+        <v>1961</v>
+      </c>
+      <c r="V42">
+        <v>963</v>
+      </c>
+      <c r="W42">
+        <v>-188</v>
+      </c>
+      <c r="X42">
+        <v>-1469</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>58</v>
+      </c>
+      <c r="AA42">
+        <v>-298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>42673</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-632</v>
+      </c>
+      <c r="D43">
+        <v>4136</v>
+      </c>
+      <c r="E43">
+        <v>2181</v>
+      </c>
+      <c r="F43">
+        <v>2498</v>
+      </c>
+      <c r="G43">
+        <v>7125</v>
+      </c>
+      <c r="H43">
+        <v>49966</v>
+      </c>
+      <c r="I43">
+        <v>1261</v>
+      </c>
+      <c r="J43">
+        <v>13188</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3078</v>
+      </c>
+      <c r="O43">
+        <v>28090</v>
+      </c>
+      <c r="P43">
+        <v>13642</v>
+      </c>
+      <c r="Q43">
+        <v>1136</v>
+      </c>
+      <c r="R43">
+        <v>42673</v>
+      </c>
+      <c r="S43">
+        <v>15700</v>
+      </c>
+      <c r="T43">
+        <v>21876</v>
+      </c>
+      <c r="U43">
+        <v>3097</v>
+      </c>
+      <c r="V43">
+        <v>1352</v>
+      </c>
+      <c r="W43">
+        <v>-202</v>
+      </c>
+      <c r="X43">
+        <v>-242</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>15</v>
+      </c>
+      <c r="AA43">
+        <v>-632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>42764</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>4139</v>
+      </c>
+      <c r="E44">
+        <v>1947</v>
+      </c>
+      <c r="F44">
+        <v>2566</v>
+      </c>
+      <c r="G44">
+        <v>7350</v>
+      </c>
+      <c r="H44">
+        <v>49617</v>
+      </c>
+      <c r="I44">
+        <v>1047</v>
+      </c>
+      <c r="J44">
+        <v>13562</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-13668</v>
+      </c>
+      <c r="N44">
+        <v>2122</v>
+      </c>
+      <c r="O44">
+        <v>27607</v>
+      </c>
+      <c r="P44">
+        <v>13562</v>
+      </c>
+      <c r="Q44">
+        <v>439</v>
+      </c>
+      <c r="R44">
+        <v>42764</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>22010</v>
+      </c>
+      <c r="U44">
+        <v>3536</v>
+      </c>
+      <c r="V44">
+        <v>1353</v>
+      </c>
+      <c r="W44">
+        <v>-431</v>
+      </c>
+      <c r="X44">
+        <v>-595</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>440</v>
+      </c>
+      <c r="D45">
+        <v>4190</v>
+      </c>
+      <c r="E45">
+        <v>2073</v>
+      </c>
+      <c r="F45">
+        <v>2626</v>
+      </c>
+      <c r="G45">
+        <v>8468</v>
+      </c>
+      <c r="H45">
+        <v>49849</v>
+      </c>
+      <c r="I45">
+        <v>925</v>
+      </c>
+      <c r="J45">
+        <v>13567</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2052</v>
+      </c>
+      <c r="O45">
+        <v>27506</v>
+      </c>
+      <c r="P45">
+        <v>13567</v>
+      </c>
+      <c r="Q45">
+        <v>718</v>
+      </c>
+      <c r="R45">
+        <v>42855</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>22343</v>
+      </c>
+      <c r="U45">
+        <v>4254</v>
+      </c>
+      <c r="V45">
+        <v>1583</v>
+      </c>
+      <c r="W45">
+        <v>-437</v>
+      </c>
+      <c r="X45">
+        <v>-372</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-200</v>
+      </c>
+      <c r="AA45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42946</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>481</v>
+      </c>
+      <c r="D46">
+        <v>4463</v>
+      </c>
+      <c r="E46">
+        <v>2417</v>
+      </c>
+      <c r="F46">
+        <v>2805</v>
+      </c>
+      <c r="G46">
+        <v>9943</v>
+      </c>
+      <c r="H46">
+        <v>49942</v>
+      </c>
+      <c r="I46">
+        <v>1158</v>
+      </c>
+      <c r="J46">
+        <v>13572</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2218</v>
+      </c>
+      <c r="O46">
+        <v>27238</v>
+      </c>
+      <c r="P46">
+        <v>13572</v>
+      </c>
+      <c r="Q46">
+        <v>995</v>
+      </c>
+      <c r="R46">
+        <v>42946</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>22704</v>
+      </c>
+      <c r="U46">
+        <v>5249</v>
+      </c>
+      <c r="V46">
+        <v>1656</v>
+      </c>
+      <c r="W46">
+        <v>-369</v>
+      </c>
+      <c r="X46">
+        <v>-403</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>532</v>
+      </c>
+      <c r="D47">
+        <v>4844</v>
+      </c>
+      <c r="E47">
+        <v>2448</v>
+      </c>
+      <c r="F47">
+        <v>3046</v>
+      </c>
+      <c r="G47">
+        <v>15823</v>
+      </c>
+      <c r="H47">
+        <v>54418</v>
+      </c>
+      <c r="I47">
+        <v>1105</v>
+      </c>
+      <c r="J47">
+        <v>17431</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2529</v>
+      </c>
+      <c r="O47">
+        <v>31232</v>
+      </c>
+      <c r="P47">
+        <v>17548</v>
+      </c>
+      <c r="Q47">
+        <v>5955</v>
+      </c>
+      <c r="R47">
+        <v>43037</v>
+      </c>
+      <c r="S47">
+        <v>14000</v>
+      </c>
+      <c r="T47">
+        <v>23186</v>
+      </c>
+      <c r="U47">
+        <v>11204</v>
+      </c>
+      <c r="V47">
+        <v>1959</v>
+      </c>
+      <c r="W47">
+        <v>-416</v>
+      </c>
+      <c r="X47">
+        <v>3600</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>193</v>
+      </c>
+      <c r="AA47">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>6230</v>
+      </c>
+      <c r="D48">
+        <v>5327</v>
+      </c>
+      <c r="E48">
+        <v>2459</v>
+      </c>
+      <c r="F48">
+        <v>3428</v>
+      </c>
+      <c r="G48">
+        <v>11220</v>
+      </c>
+      <c r="H48">
+        <v>54544</v>
+      </c>
+      <c r="I48">
+        <v>816</v>
+      </c>
+      <c r="J48">
+        <v>17475</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-856</v>
+      </c>
+      <c r="N48">
+        <v>1970</v>
+      </c>
+      <c r="O48">
+        <v>25463</v>
+      </c>
+      <c r="P48">
+        <v>17592</v>
+      </c>
+      <c r="Q48">
+        <v>-4128</v>
+      </c>
+      <c r="R48">
+        <v>43135</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>29081</v>
+      </c>
+      <c r="U48">
+        <v>7076</v>
+      </c>
+      <c r="V48">
+        <v>1685</v>
+      </c>
+      <c r="W48">
+        <v>-755</v>
+      </c>
+      <c r="X48">
+        <v>-1586</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-244</v>
+      </c>
+      <c r="AA48">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>3718</v>
+      </c>
+      <c r="D49">
+        <v>5014</v>
+      </c>
+      <c r="E49">
+        <v>2749</v>
+      </c>
+      <c r="F49">
+        <v>3318</v>
+      </c>
+      <c r="G49">
+        <v>12474</v>
+      </c>
+      <c r="H49">
+        <v>54936</v>
+      </c>
+      <c r="I49">
+        <v>836</v>
+      </c>
+      <c r="J49">
+        <v>17481</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2124</v>
+      </c>
+      <c r="O49">
+        <v>22869</v>
+      </c>
+      <c r="P49">
+        <v>17598</v>
+      </c>
+      <c r="Q49">
+        <v>1111</v>
+      </c>
+      <c r="R49">
+        <v>43226</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>32067</v>
+      </c>
+      <c r="U49">
+        <v>8187</v>
+      </c>
+      <c r="V49">
+        <v>2313</v>
+      </c>
+      <c r="W49">
+        <v>-766</v>
+      </c>
+      <c r="X49">
+        <v>-1047</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>49</v>
+      </c>
+      <c r="AA49">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43317</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1196</v>
+      </c>
+      <c r="D50">
+        <v>5063</v>
+      </c>
+      <c r="E50">
+        <v>3010</v>
+      </c>
+      <c r="F50">
+        <v>3383</v>
+      </c>
+      <c r="G50">
+        <v>8695</v>
+      </c>
+      <c r="H50">
+        <v>50372</v>
+      </c>
+      <c r="I50">
+        <v>785</v>
+      </c>
+      <c r="J50">
+        <v>17487</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2187</v>
+      </c>
+      <c r="O50">
+        <v>22920</v>
+      </c>
+      <c r="P50">
+        <v>17604</v>
+      </c>
+      <c r="Q50">
+        <v>-4051</v>
+      </c>
+      <c r="R50">
+        <v>43317</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>27452</v>
+      </c>
+      <c r="U50">
+        <v>4136</v>
+      </c>
+      <c r="V50">
+        <v>2247</v>
+      </c>
+      <c r="W50">
+        <v>-677</v>
+      </c>
+      <c r="X50">
+        <v>-6124</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>43408</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1115</v>
+      </c>
+      <c r="D51">
+        <v>5444</v>
+      </c>
+      <c r="E51">
+        <v>3325</v>
+      </c>
+      <c r="F51">
+        <v>3698</v>
+      </c>
+      <c r="G51">
+        <v>9107</v>
+      </c>
+      <c r="H51">
+        <v>50124</v>
+      </c>
+      <c r="I51">
+        <v>811</v>
+      </c>
+      <c r="J51">
+        <v>17493</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2338</v>
+      </c>
+      <c r="O51">
+        <v>23467</v>
+      </c>
+      <c r="P51">
+        <v>17493</v>
+      </c>
+      <c r="Q51">
+        <v>156</v>
+      </c>
+      <c r="R51">
+        <v>43408</v>
+      </c>
+      <c r="S51">
+        <v>15000</v>
+      </c>
+      <c r="T51">
+        <v>26657</v>
+      </c>
+      <c r="U51">
+        <v>4292</v>
+      </c>
+      <c r="V51">
+        <v>2635</v>
+      </c>
+      <c r="W51">
+        <v>-723</v>
+      </c>
+      <c r="X51">
+        <v>-2361</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>43499</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>471</v>
+      </c>
+      <c r="D52">
+        <v>5789</v>
+      </c>
+      <c r="E52">
+        <v>3677</v>
+      </c>
+      <c r="F52">
+        <v>4097</v>
+      </c>
+      <c r="G52">
+        <v>10604</v>
+      </c>
+      <c r="H52">
+        <v>72110</v>
+      </c>
+      <c r="I52">
+        <v>738</v>
+      </c>
+      <c r="J52">
+        <v>34104</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8349</v>
+      </c>
+      <c r="O52">
+        <v>48886</v>
+      </c>
+      <c r="P52">
+        <v>37641</v>
+      </c>
+      <c r="Q52">
+        <v>801</v>
+      </c>
+      <c r="R52">
+        <v>43499</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>23224</v>
+      </c>
+      <c r="U52">
+        <v>5093</v>
+      </c>
+      <c r="V52">
+        <v>2132</v>
+      </c>
+      <c r="W52">
+        <v>-1067</v>
+      </c>
+      <c r="X52">
+        <v>13862</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>43590</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>691</v>
+      </c>
+      <c r="D53">
+        <v>5517</v>
+      </c>
+      <c r="E53">
+        <v>3484</v>
+      </c>
+      <c r="F53">
+        <v>3925</v>
+      </c>
+      <c r="G53">
+        <v>10677</v>
+      </c>
+      <c r="H53">
+        <v>70916</v>
+      </c>
+      <c r="I53">
+        <v>759</v>
+      </c>
+      <c r="J53">
+        <v>34011</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>8503</v>
+      </c>
+      <c r="O53">
+        <v>48744</v>
+      </c>
+      <c r="P53">
+        <v>37548</v>
+      </c>
+      <c r="Q53">
+        <v>235</v>
+      </c>
+      <c r="R53">
+        <v>43590</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>22172</v>
+      </c>
+      <c r="U53">
+        <v>5328</v>
+      </c>
+      <c r="V53">
+        <v>2667</v>
+      </c>
+      <c r="W53">
+        <v>-1057</v>
+      </c>
+      <c r="X53">
+        <v>-2326</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>715</v>
+      </c>
+      <c r="D54">
+        <v>5515</v>
+      </c>
+      <c r="E54">
+        <v>3539</v>
+      </c>
+      <c r="F54">
+        <v>3864</v>
+      </c>
+      <c r="G54">
+        <v>10898</v>
+      </c>
+      <c r="H54">
+        <v>69767</v>
+      </c>
+      <c r="I54">
+        <v>996</v>
+      </c>
+      <c r="J54">
+        <v>34028</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>8282</v>
+      </c>
+      <c r="O54">
+        <v>48264</v>
+      </c>
+      <c r="P54">
+        <v>37565</v>
+      </c>
+      <c r="Q54">
+        <v>134</v>
+      </c>
+      <c r="R54">
+        <v>43681</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>21503</v>
+      </c>
+      <c r="U54">
+        <v>5462</v>
+      </c>
+      <c r="V54">
+        <v>2419</v>
+      </c>
+      <c r="W54">
+        <v>-1057</v>
+      </c>
+      <c r="X54">
+        <v>-2250</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>43772</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>847</v>
+      </c>
+      <c r="D55">
+        <v>5776</v>
+      </c>
+      <c r="E55">
+        <v>3259</v>
+      </c>
+      <c r="F55">
+        <v>3988</v>
+      </c>
+      <c r="G55">
+        <v>9917</v>
+      </c>
+      <c r="H55">
+        <v>67493</v>
+      </c>
+      <c r="I55">
+        <v>855</v>
+      </c>
+      <c r="J55">
+        <v>30011</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>6899</v>
+      </c>
+      <c r="O55">
+        <v>42523</v>
+      </c>
+      <c r="P55">
+        <v>32798</v>
+      </c>
+      <c r="Q55">
+        <v>-407</v>
+      </c>
+      <c r="R55">
+        <v>43772</v>
+      </c>
+      <c r="S55">
+        <v>19000</v>
+      </c>
+      <c r="T55">
+        <v>24970</v>
+      </c>
+      <c r="U55">
+        <v>5055</v>
+      </c>
+      <c r="V55">
+        <v>2479</v>
+      </c>
+      <c r="W55">
+        <v>-1054</v>
+      </c>
+      <c r="X55">
+        <v>-2798</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-5</v>
+      </c>
+      <c r="AA55">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>385</v>
+      </c>
+      <c r="D56">
+        <v>5858</v>
+      </c>
+      <c r="E56">
+        <v>3651</v>
+      </c>
+      <c r="F56">
+        <v>4222</v>
+      </c>
+      <c r="G56">
+        <v>12109</v>
+      </c>
+      <c r="H56">
+        <v>81006</v>
+      </c>
+      <c r="I56">
+        <v>985</v>
+      </c>
+      <c r="J56">
+        <v>42363</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-4537</v>
+      </c>
+      <c r="N56">
+        <v>7739</v>
+      </c>
+      <c r="O56">
+        <v>56610</v>
+      </c>
+      <c r="P56">
+        <v>45381</v>
+      </c>
+      <c r="Q56">
+        <v>1389</v>
+      </c>
+      <c r="R56">
+        <v>43863</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>24396</v>
+      </c>
+      <c r="U56">
+        <v>6444</v>
+      </c>
+      <c r="V56">
+        <v>2322</v>
+      </c>
+      <c r="W56">
+        <v>-1372</v>
+      </c>
+      <c r="X56">
+        <v>10054</v>
+      </c>
+      <c r="Y56">
+        <v>612</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>563</v>
+      </c>
+      <c r="D57">
+        <v>5742</v>
+      </c>
+      <c r="E57">
+        <v>3211</v>
+      </c>
+      <c r="F57">
+        <v>4150</v>
+      </c>
+      <c r="G57">
+        <v>14222</v>
+      </c>
+      <c r="H57">
+        <v>81548</v>
+      </c>
+      <c r="I57">
+        <v>1230</v>
+      </c>
+      <c r="J57">
+        <v>45001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>6601</v>
+      </c>
+      <c r="O57">
+        <v>57578</v>
+      </c>
+      <c r="P57">
+        <v>46511</v>
+      </c>
+      <c r="Q57">
+        <v>2763</v>
+      </c>
+      <c r="R57">
+        <v>43954</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>23970</v>
+      </c>
+      <c r="U57">
+        <v>9207</v>
+      </c>
+      <c r="V57">
+        <v>3213</v>
+      </c>
+      <c r="W57">
+        <v>-1381</v>
+      </c>
+      <c r="X57">
+        <v>-474</v>
+      </c>
+      <c r="Y57">
+        <v>596</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>688</v>
+      </c>
+      <c r="D58">
+        <v>5821</v>
+      </c>
+      <c r="E58">
+        <v>2684</v>
+      </c>
+      <c r="F58">
+        <v>4284</v>
+      </c>
+      <c r="G58">
+        <v>13681</v>
+      </c>
+      <c r="H58">
+        <v>79298</v>
+      </c>
+      <c r="I58">
+        <v>1092</v>
+      </c>
+      <c r="J58">
+        <v>43149</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>6702</v>
+      </c>
+      <c r="O58">
+        <v>55713</v>
+      </c>
+      <c r="P58">
+        <v>44669</v>
+      </c>
+      <c r="Q58">
+        <v>-350</v>
+      </c>
+      <c r="R58">
+        <v>44045</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>23585</v>
+      </c>
+      <c r="U58">
+        <v>8857</v>
+      </c>
+      <c r="V58">
+        <v>3178</v>
+      </c>
+      <c r="W58">
+        <v>-1386</v>
+      </c>
+      <c r="X58">
+        <v>-3482</v>
+      </c>
+      <c r="Y58">
+        <v>598</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
         <v>1324</v>
       </c>
-      <c r="D42">
+      <c r="D59">
         <v>6467</v>
       </c>
-      <c r="E42">
+      <c r="E59">
         <v>2297</v>
       </c>
-      <c r="F42">
+      <c r="F59">
         <v>4714</v>
       </c>
-      <c r="G42">
+      <c r="G59">
         <v>11895</v>
       </c>
-      <c r="H42">
+      <c r="H59">
         <v>75933</v>
       </c>
-      <c r="I42">
+      <c r="I59">
         <v>836</v>
       </c>
-      <c r="J42">
+      <c r="J59">
         <v>40187</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
         <v>6371</v>
       </c>
-      <c r="O42">
+      <c r="O59">
         <v>52032</v>
       </c>
-      <c r="P42">
+      <c r="P59">
         <v>41689</v>
       </c>
-      <c r="Q42">
+      <c r="Q59">
         <v>-1239</v>
       </c>
-      <c r="R42">
+      <c r="R59">
         <v>44136</v>
       </c>
-      <c r="S42">
+      <c r="S59">
         <v>21000</v>
       </c>
-      <c r="T42">
+      <c r="T59">
         <v>23901</v>
       </c>
-      <c r="U42">
+      <c r="U59">
         <v>7618</v>
       </c>
-      <c r="V42">
+      <c r="V59">
         <v>3348</v>
       </c>
-      <c r="W42">
+      <c r="W59">
         <v>-1395</v>
       </c>
-      <c r="X42">
+      <c r="X59">
         <v>-4487</v>
       </c>
-      <c r="Y42">
+      <c r="Y59">
         <v>575</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
         <v>1324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>1378</v>
+      </c>
+      <c r="D60">
+        <v>6655</v>
+      </c>
+      <c r="E60">
+        <v>2524</v>
+      </c>
+      <c r="F60">
+        <v>4841</v>
+      </c>
+      <c r="G60">
+        <v>14300</v>
+      </c>
+      <c r="H60">
+        <v>76972</v>
+      </c>
+      <c r="I60">
+        <v>898</v>
+      </c>
+      <c r="J60">
+        <v>41025</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-9200</v>
+      </c>
+      <c r="N60">
+        <v>6694</v>
+      </c>
+      <c r="O60">
+        <v>52973</v>
+      </c>
+      <c r="P60">
+        <v>41932</v>
+      </c>
+      <c r="Q60">
+        <v>1934</v>
+      </c>
+      <c r="R60">
+        <v>44227</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>23999</v>
+      </c>
+      <c r="U60">
+        <v>9552</v>
+      </c>
+      <c r="V60">
+        <v>3113</v>
+      </c>
+      <c r="W60">
+        <v>-1543</v>
+      </c>
+      <c r="X60">
+        <v>-1057</v>
+      </c>
+      <c r="Y60">
+        <v>43</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>1378</v>
       </c>
     </row>
   </sheetData>
